--- a/FaysalData/データ設定.xlsx
+++ b/FaysalData/データ設定.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>売却コンボシステム</t>
   </si>
@@ -237,6 +237,73 @@
   </si>
   <si>
     <t>マント</t>
+  </si>
+  <si>
+    <t>武器には種別毎にスキルを設定。</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>共通スキルツリー</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>大回転</t>
+    <rPh sb="0" eb="3">
+      <t>ダイカイテン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3ターンの間毎ターン終了時に周囲8マスの敵に通常攻撃+50%のダメージ。発動中回復アイテム使用不可。</t>
+    <rPh sb="5" eb="6">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>シュウリョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュウイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ハツドウチュウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -610,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:B27"/>
+  <dimension ref="B5:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -621,7 +688,7 @@
     <col min="2" max="2" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:2" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,7 +765,7 @@
     <row r="21" spans="2:2" ht="13.8" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="2:2" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
@@ -713,7 +780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
@@ -726,6 +793,24 @@
     <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
